--- a/tests/data/8_minimal.xlsx
+++ b/tests/data/8_minimal.xlsx
@@ -1,6 +1,8 @@
 
 <file path=sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
 </worksheet>
 </file>

--- a/tests/data/8_minimal.xlsx
+++ b/tests/data/8_minimal.xlsx
@@ -9,6 +9,7 @@
 
 <file path=workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
